--- a/report/reliability/comb/Instituto de Ciências Humanas, Comunicação e Artes - ICHCA-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Ciências Humanas, Comunicação e Artes - ICHCA-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7923141536376431</v>
+        <v>0.770397392010317</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8011151103246285</v>
+        <v>0.7936155099516933</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.896872298463428</v>
+        <v>0.8952209259452472</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2513117982860298</v>
+        <v>0.22827254829327445</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.028034063483873</v>
+        <v>3.8453253428391756</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.019455907233071675</v>
+        <v>0.019960124520170264</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.4443359375</v>
+        <v>1.8837139423076923</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.800237868771708</v>
+        <v>0.6751169660339563</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.1947249631261994</v>
+        <v>0.17474421705096155</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7722718580472057</v>
+        <v>0.7712890163419787</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7769160911903602</v>
+        <v>0.7865811125092613</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8751366297355682</v>
+        <v>0.8909370270551541</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.24046882868688974</v>
+        <v>0.2349681230114542</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.4826182459144173</v>
+        <v>3.685620901493058</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.021328859383988114</v>
+        <v>0.020346030041944525</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03705765946574577</v>
+        <v>0.052697601644182274</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.1843059517584143</v>
+        <v>0.18217394708046863</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7763776261912236</v>
+        <v>0.7526628959184843</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7830154628039282</v>
+        <v>0.773294774576632</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8773279209762965</v>
+        <v>0.8791380771724593</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2470200817144563</v>
+        <v>0.22133613425638804</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.6086233282898785</v>
+        <v>3.411014338696949</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.020946898782400847</v>
+        <v>0.021307154586984754</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.035845626560401446</v>
+        <v>0.053191234035022926</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.19641490384868182</v>
+        <v>0.1635509311756133</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7748236325968711</v>
+        <v>0.7597596491488564</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7813688529027808</v>
+        <v>0.7793520664054138</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8743020902367115</v>
+        <v>0.8826322661321638</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.24522676455869927</v>
+        <v>0.22740680608278652</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.5739137047811735</v>
+        <v>3.5321067988671007</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.02110657570970393</v>
+        <v>0.02068360045328264</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03568327741707001</v>
+        <v>0.0523934540689673</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.19303502240371698</v>
+        <v>0.16860790948381177</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.774551794418265</v>
+        <v>0.7565738122821242</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7815438497165136</v>
+        <v>0.7704076958502154</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8735944406887218</v>
+        <v>0.8756433691840226</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.24541647225867386</v>
+        <v>0.218523427164006</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.577577691002603</v>
+        <v>3.3555466883053984</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.021057120615075284</v>
+        <v>0.02151449237367774</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03583107013607004</v>
+        <v>0.04356678450054161</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.1983664966487177</v>
+        <v>0.17859433418488707</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7665006740093674</v>
+        <v>0.7309417881675312</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7824093336791008</v>
+        <v>0.765007553277106</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8590954842719228</v>
+        <v>0.8727312929773586</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2463577858703632</v>
+        <v>0.21339617392521384</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.5957853657436565</v>
+        <v>3.2554559261183953</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.022096687091846954</v>
+        <v>0.02372867404130028</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.034760741873085546</v>
+        <v>0.043567772605509654</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.18194351082326532</v>
+        <v>0.16860790948381177</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7720787951778397</v>
+        <v>0.7369837306309481</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7860396923437215</v>
+        <v>0.7676361367937699</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.861544854367242</v>
+        <v>0.8744479646939398</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2503627602519335</v>
+        <v>0.21587052816052715</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.6737640778049028</v>
+        <v>3.3035951726816903</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02154607410487106</v>
+        <v>0.023103292429930904</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03458990743284443</v>
+        <v>0.043673900873148756</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.19641490384868182</v>
+        <v>0.1713904634431524</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7910089703155605</v>
+        <v>0.7730104490707972</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8027917935829855</v>
+        <v>0.8023374977294415</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8900445810147382</v>
+        <v>0.8982373807391235</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2701109108866879</v>
+        <v>0.2527614437622414</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.070782895745272</v>
+        <v>4.059128506990215</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.019623520785162073</v>
+        <v>0.020217884515670123</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.038035979179018936</v>
+        <v>0.05029440302246934</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.20766776742597867</v>
+        <v>0.1854856453462036</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7981201372084191</v>
+        <v>0.764890486706043</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8041635073069415</v>
+        <v>0.7880000539708989</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.889545557279699</v>
+        <v>0.8859514716790478</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2718270149792816</v>
+        <v>0.2364946561743757</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.1063005992827675</v>
+        <v>3.7169823329234744</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.018856514956927115</v>
+        <v>0.02010550488173467</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.03712322683695802</v>
+        <v>0.05409844247601696</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2047982826357086</v>
+        <v>0.1854856453462036</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7819276904583737</v>
+        <v>0.7734504900304157</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7924089133391083</v>
+        <v>0.7899509724275781</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8950795214205242</v>
+        <v>0.8913482645799397</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2576176448873211</v>
+        <v>0.2386170046798549</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.817162509648304</v>
+        <v>3.7607932850591954</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.02059531920557649</v>
+        <v>0.019152066550141098</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04146690533321853</v>
+        <v>0.05441267909141749</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.19641490384868182</v>
+        <v>0.18217394708046863</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7797421037022392</v>
+        <v>0.7561944992061038</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7889383736924221</v>
+        <v>0.7859947578084082</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8929587367767745</v>
+        <v>0.8930575501726371</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2536276759873682</v>
+        <v>0.2343414563856511</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.7379526894325634</v>
+        <v>3.6727827307367265</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.020706209261471025</v>
+        <v>0.02117124074204756</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.042101046954779904</v>
+        <v>0.05692519050344433</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.18666533893399292</v>
+        <v>0.1713904634431524</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7699232752189369</v>
+        <v>0.7569025554314621</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7791871872580716</v>
+        <v>0.7860173730366314</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.873470969412434</v>
+        <v>0.8914160368901837</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.24287907350036952</v>
+        <v>0.234365581722371</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.528722711252875</v>
+        <v>3.6732765841368487</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.02160259445880268</v>
+        <v>0.020985914176167533</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.038546998736166196</v>
+        <v>0.056492491314199735</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.18666533893399292</v>
+        <v>0.17550135954445464</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.771354781341583</v>
+        <v>0.7408715387893384</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7809990560653322</v>
+        <v>0.771278074413131</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8745710018957679</v>
+        <v>0.8726010528089374</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.24482656585031373</v>
+        <v>0.2193660344721213</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.5661903644502955</v>
+        <v>3.372121288477865</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.021488143147265215</v>
+        <v>0.022440848739813307</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.03854235142074726</v>
+        <v>0.054607789424461296</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1843059517584143</v>
+        <v>0.14929361658583173</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7414890200164064</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.772028037890428</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8733685953078518</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.22009575801557693</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.386504334771492</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.022414981751328916</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05494201523455428</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.15004664681540594</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>256.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6027625914619321</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6488215400284868</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6290873711579845</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.520455152201706</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.38671875</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1179723307635754</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>256.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5544298994588981</v>
+        <v>0.35487375001058663</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5952114125891432</v>
+        <v>0.47293514813748044</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5724795511133065</v>
+        <v>0.4234116601871026</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.451525457420269</v>
+        <v>0.3343911692056272</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.88671875</v>
+        <v>0.95703125</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2798818017577203</v>
+        <v>0.20318390925561047</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>256.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.571240462033247</v>
+        <v>0.5374263133109165</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.609886461904863</v>
+        <v>0.6019792122617371</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5934888134327664</v>
+        <v>0.5817785423444025</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4807327805606022</v>
+        <v>0.4372801927333334</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.3203125</v>
+        <v>3.38671875</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.1643973026554864</v>
+        <v>1.1179723307635754</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>256.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5759356720386273</v>
+        <v>0.4790406694023019</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6083340483544977</v>
+        <v>0.5445126034991714</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5928690546631905</v>
+        <v>0.5169480086029814</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4658490701479757</v>
+        <v>0.3548912896952627</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.71484375</v>
+        <v>3.88671875</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.397734292331981</v>
+        <v>1.2798818017577203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>256.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6644331770197792</v>
+        <v>0.6587554771667651</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6006311032124452</v>
+        <v>0.6286050524757861</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6204515051602421</v>
+        <v>0.6517049053966228</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5356491387807832</v>
+        <v>0.6274195418628451</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.13671875</v>
+        <v>0.3046875</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.8281189772818505</v>
+        <v>0.4611765643757408</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>256.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6338092108653618</v>
+        <v>0.718811050906066</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5678576496328261</v>
+        <v>0.6771410076923065</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5853497767359648</v>
+        <v>0.7051449640443018</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4939048256097662</v>
+        <v>0.591889141297358</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.1640625</v>
+        <v>1.13671875</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.8672716544125414</v>
+        <v>1.8281189772818505</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>256.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4080135627024888</v>
+        <v>0.6919137540939707</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.4062548436099613</v>
+        <v>0.6537181064307986</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3399450588218081</v>
+        <v>0.6799156817182374</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.28321790255607276</v>
+        <v>0.5529700717519779</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.671875</v>
+        <v>1.1640625</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.329067932284671</v>
+        <v>1.8672716544125414</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>256.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.40533692643015884</v>
+        <v>0.21417189058966934</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.39221164321516644</v>
+        <v>0.30449879851866635</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.327521703981224</v>
+        <v>0.227253935536387</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.2480604933568431</v>
+        <v>0.18607046305161354</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.80859375</v>
+        <v>0.9296875</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6445049243095722</v>
+        <v>0.25617376914899</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>256.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.517301635436977</v>
+        <v>0.4394111218679157</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5084895732931867</v>
+        <v>0.45848457552454125</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.42991773081826856</v>
+        <v>0.4114846223647245</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3902749852531354</v>
+        <v>0.30528061765009135</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.40234375</v>
+        <v>2.671875</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4839779525739223</v>
+        <v>1.329067932284671</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>256.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5343594190375515</v>
+        <v>0.435255890937705</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5411402342133838</v>
+        <v>0.4383938549733456</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.46850874124742997</v>
+        <v>0.3792201941834223</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.41179245648222457</v>
+        <v>0.26545119102677495</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.89453125</v>
+        <v>2.80859375</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.463480063772248</v>
+        <v>1.6445049243095722</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>256.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6172211773013586</v>
+        <v>0.5331589551925692</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6290980564342863</v>
+        <v>0.4788673426028411</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6115137707292716</v>
+        <v>0.4059161934060008</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5202928646495268</v>
+        <v>0.3952911485267645</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.01171875</v>
+        <v>1.40234375</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.323934782692686</v>
+        <v>1.4839779525739223</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>256.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6042480242683047</v>
+        <v>0.5252008686512702</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6131613627012951</v>
+        <v>0.4786389656906648</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.593971279700219</v>
+        <v>0.4105784156547666</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5085602271652612</v>
+        <v>0.38819015902246606</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>1.89453125</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.463480063772248</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>256.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6410887985274</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6206287055572498</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.6057383732213143</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5383216095775819</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.01171875</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.323934782692686</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>256.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6369930104207269</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.6137209466508556</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5976576832944076</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5370573711138964</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.93359375</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.283180933782734</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.04296875</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.05078125</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.01171875</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.34765625</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.46484375</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.08203125</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.04296875</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0078125</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.05078125</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.25</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.21484375</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.43359375</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
         <v>0.04296875</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.0625</v>
+        <v>0.95703125</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.03515625</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3359375</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4375</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.0859375</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
         <v>0.04296875</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.0234375</v>
+        <v>0.05078125</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.0859375</v>
+        <v>0.01171875</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.328125</v>
+        <v>0.34765625</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.0625</v>
+        <v>0.46484375</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.45703125</v>
+        <v>0.08203125</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.6953125</v>
+        <v>0.04296875</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.0234375</v>
+        <v>0.0078125</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0078125</v>
+        <v>0.05078125</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.078125</v>
+        <v>0.25</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.11328125</v>
+        <v>0.21484375</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.08203125</v>
+        <v>0.43359375</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.6953125</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.015625</v>
+        <v>0.3046875</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.01171875</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.09375</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.07421875</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.109375</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.0703125</v>
+        <v>0.6953125</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.1953125</v>
+        <v>0.0234375</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.0390625</v>
+        <v>0.0078125</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.43359375</v>
+        <v>0.078125</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2109375</v>
+        <v>0.11328125</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.05078125</v>
+        <v>0.08203125</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.0703125</v>
+        <v>0.6953125</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.19921875</v>
+        <v>0.015625</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.21484375</v>
+        <v>0.01171875</v>
       </c>
       <c r="E50" t="n" s="112">
+        <v>0.09375</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.07421875</v>
+      </c>
+      <c r="G50" t="n" s="114">
         <v>0.109375</v>
-      </c>
-      <c r="F50" t="n" s="113">
-        <v>0.1796875</v>
-      </c>
-      <c r="G50" t="n" s="114">
-        <v>0.2265625</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.44140625</v>
+        <v>0.0703125</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.1484375</v>
+        <v>0.9296875</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.078125</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.23046875</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.1015625</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2578125</v>
+        <v>0.0703125</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.19921875</v>
+        <v>0.1953125</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.0859375</v>
+        <v>0.0390625</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.3046875</v>
+        <v>0.43359375</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.15234375</v>
+        <v>0.2109375</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.05078125</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.20703125</v>
+        <v>0.0703125</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.1015625</v>
+        <v>0.19921875</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.30859375</v>
+        <v>0.21484375</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.23828125</v>
+        <v>0.109375</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.14453125</v>
+        <v>0.1796875</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.2265625</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.21875</v>
+        <v>0.44140625</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.07421875</v>
+        <v>0.1484375</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.38671875</v>
+        <v>0.078125</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.1953125</v>
+        <v>0.23046875</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.125</v>
+        <v>0.1015625</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.2578125</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.19921875</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.0859375</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.3046875</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.15234375</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.20703125</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.1015625</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.30859375</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.23828125</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.14453125</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.21875</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.07421875</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.38671875</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.1953125</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.125</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8514415427674511</v>
+        <v>0.8694118884412598</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8541946877732915</v>
+        <v>0.9811185834113486</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.872860109418936</v>
+        <v>0.972127636783876</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5942571429576265</v>
+        <v>0.9454169604508506</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.858460674225161</v>
+        <v>51.96212788404064</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.015565649902927496</v>
+        <v>0.0027575835961622147</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.5771484375</v>
+        <v>0.8684895833333334</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0352395163976666</v>
+        <v>1.3642098663212312</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5544596286650281</v>
+        <v>0.9435857779739562</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8183894041374964</v>
+        <v>0.9750404381460189</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8199810323212786</v>
+        <v>0.9751526226300775</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7851243306808131</v>
+        <v>0.951510092295521</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6029104122788843</v>
+        <v>0.9515100922955209</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.554970195055738</v>
+        <v>39.24569615988885</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.019718489539007417</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.024868442933439084</v>
-      </c>
+        <v>0.0031125676848191464</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5627853049711606</v>
+        <v>0.9515100922955209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.814064074829765</v>
+        <v>0.6104308598784756</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8161700305808324</v>
+        <v>0.9709741537186738</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7804619237492258</v>
+        <v>0.9435857779739563</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5967638646154043</v>
+        <v>0.943585777973956</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.439809423673505</v>
+        <v>33.45205319106746</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.01995013848793828</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.02585934202096974</v>
-      </c>
+        <v>0.00835648317644874</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5461339523588955</v>
+        <v>0.9435857779739562</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8045646373359112</v>
+        <v>0.6172913805277569</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8126545135228456</v>
+        <v>0.9696855796775896</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7693587751240486</v>
+        <v>0.9411550110830748</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5911543245071241</v>
+        <v>0.9411550110830746</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.3377320094762135</v>
+        <v>31.9876009293418</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.021570177922015238</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.019640767545107067</v>
-      </c>
+        <v>0.008570931899273104</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5627853049711606</v>
+        <v>0.9411550110830748</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.807415</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8095194067223929</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7649113940372896</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.586199970429094</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.2498786505909125</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.021163923367537512</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.019995190649220177</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5461339523588955</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>256.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9635982885958642</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9795680170295793</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9625804640123996</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9540179796718092</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.3046875</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4611765643757408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>256.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8110426278300863</v>
+        <v>0.9868680608408197</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8263010930911292</v>
+        <v>0.9822588670691182</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.762948446451443</v>
+        <v>0.969546014735501</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6790084723634834</v>
+        <v>0.9580828173793459</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.38671875</v>
+        <v>1.13671875</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1179723307635754</v>
+        <v>1.8281189772818505</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>256.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8316408484135843</v>
+        <v>0.9876058560287229</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8318280203006808</v>
+        <v>0.9830842797066053</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7717145013994896</v>
+        <v>0.9714538358951283</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6853047711328822</v>
+        <v>0.9590355869414892</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.88671875</v>
+        <v>1.1640625</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2798818017577203</v>
+        <v>1.8672716544125414</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>256.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8358381158768047</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8368720745494966</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7876362206044789</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7107313980077291</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.3203125</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.1643973026554864</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>256.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8560891866965452</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8413269906843395</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7947315814050201</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.708281970489855</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.71484375</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.397734292331981</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.6953125</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.3046875</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.6953125</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0234375</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0078125</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.078125</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.11328125</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.08203125</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.04296875</v>
+        <v>0.6953125</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.05078125</v>
+        <v>0.015625</v>
       </c>
       <c r="D27" t="n" s="226">
         <v>0.01171875</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.34765625</v>
+        <v>0.09375</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.46484375</v>
+        <v>0.07421875</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.08203125</v>
+        <v>0.109375</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.04296875</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0078125</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.05078125</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.25</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.21484375</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.43359375</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.04296875</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.0625</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.03515625</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3359375</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4375</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.0859375</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.04296875</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0234375</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.0859375</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.328125</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.0625</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.45703125</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7647682472368063</v>
+        <v>0.6576478686547466</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7754267818844505</v>
+        <v>0.7874710615613874</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6332220649719305</v>
+        <v>0.7209464327293127</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6332220649719305</v>
+        <v>0.5525888276811589</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.4528907248658234</v>
+        <v>3.70524158896527</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.02833518273695404</v>
+        <v>0.020813879297796385</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.740234375</v>
+        <v>2.13671875</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3452539463413808</v>
+        <v>0.9474041115878666</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6332220649719306</v>
+        <v>0.5539449702500309</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6332220649719306</v>
+        <v>0.7647682472368063</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6332220649719306</v>
+        <v>0.7754267818844505</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.40097018356731584</v>
+        <v>0.6332220649719305</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6332220649719306</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6332220649719306</v>
-      </c>
+        <v>0.6332220649719305</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.4528907248658234</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.02833518273695404</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.6332220649719306</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.40097018356731584</v>
+        <v>0.2504365998906686</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6332220649719306</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.40097018356731584</v>
-      </c>
+        <v>0.6400103692662771</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.47059944782151564</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.47059944782151564</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.7778577898530628</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.02540797090720701</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6332220649719306</v>
+        <v>0.4705994478215156</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.3414782970461794</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.71295313650766</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5539449702500308</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.553944970250031</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.4837517046295314</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.026029965061040473</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5539449702500309</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>256.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8810250074936247</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9036653321257628</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7190939606683004</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6332220649719306</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.671875</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.329067932284671</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>256.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9240263043420783</v>
+        <v>0.6214551084289247</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9036653321257628</v>
+        <v>0.8056052843913768</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7190939606683004</v>
+        <v>0.6351866406832336</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6332220649719307</v>
+        <v>0.5612819830919596</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9296875</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.25617376914899</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>256.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8839279446204792</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8703159613063943</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7837064171455573</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6649396241457607</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.671875</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.329067932284671</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>256.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9171219431089846</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.837151169909657</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7149206553816112</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6473218709037046</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.80859375</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.6445049243095722</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.0703125</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9296875</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.0703125</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.1953125</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.0390625</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.43359375</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2109375</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.05078125</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.0703125</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.19921875</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.21484375</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.109375</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.1796875</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.2265625</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8909712435155477</v>
+        <v>0.7269672036157144</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8912126976862933</v>
+        <v>0.8628211143938482</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8037724600801246</v>
+        <v>0.8122588577847099</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8037724600801248</v>
+        <v>0.6770634855336127</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>8.192249267440504</v>
+        <v>6.289751593922817</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.013609807038154412</v>
+        <v>0.013560717648361476</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.97265625</v>
+        <v>2.7434895833333335</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2379752503940598</v>
+        <v>0.7946998566757363</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8037724600801248</v>
+        <v>0.6447278702362246</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8037724600801248</v>
+        <v>0.84830232018278</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8037724600801248</v>
+        <v>0.8527597920571732</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6460501675832555</v>
+        <v>0.7433140733328192</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8037724600801248</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8037724600801248</v>
-      </c>
+        <v>0.7433140733328192</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.791623116888686</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.01858389029609772</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8037724600801248</v>
+        <v>0.7433140733328193</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6460501675832555</v>
+        <v>0.3328771289537711</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8037724600801248</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6460501675832555</v>
-      </c>
+        <v>0.783993366809824</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6447278702362247</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6447278702362245</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>3.6294874617094863</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.02014735508316278</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8037724600801248</v>
+        <v>0.6447278702362246</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.36907894736842106</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7828245687239954</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6431485130317944</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6431485130317944</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.6045724146812765</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.021815124448158904</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6431485130317943</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>256.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9512792270352027</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9496769082377766</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8514172383923703</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8037724600801249</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.01171875</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.323934782692686</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>256.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9480493452135264</v>
+        <v>0.7329314771774855</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9496769082377766</v>
+        <v>0.8609084814932679</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8514172383923704</v>
+        <v>0.7363346823741024</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8037724600801247</v>
+        <v>0.6895433883562506</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.93359375</v>
+        <v>0.95703125</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.283180933782734</v>
+        <v>0.20318390925561047</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>256.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9227818934161711</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.898005633692917</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8287598429310175</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7623143775441122</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.38671875</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1179723307635754</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>256.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9403486020787436</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.898599932415761</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8300007658675989</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7645223781117791</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.88671875</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2798818017577203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.20703125</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.1015625</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.30859375</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.23828125</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.14453125</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.04296875</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.95703125</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.21875</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.07421875</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.38671875</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.1953125</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.125</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.04296875</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.05078125</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.01171875</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.34765625</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.46484375</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.08203125</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.04296875</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0078125</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.05078125</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.25</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.21484375</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.43359375</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9750404381460189</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9751526226300775</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.951510092295521</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9515100922955209</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>39.24569615988885</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0031125676848191464</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>1.150390625</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.8251617827163253</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9515100922955209</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6792820149782035</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6793254050086395</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.514377582172756</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.5143775821727559</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>2.1184260169625904</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.040084475710586376</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.6484375</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.282398755702551</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.5143775821727559</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9515100922955209</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9515100922955209</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9053714557402308</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9515100922955209</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9515100922955209</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9515100922955209</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.5143775821727559</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.5143775821727559</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.26458429704189024</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.5143775821727559</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.5143775821727559</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.5143775821727559</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9053714557402308</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9515100922955209</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9053714557402308</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9515100922955209</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.26458429704189024</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.5143775821727559</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.26458429704189024</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.5143775821727559</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>256.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9875417170273443</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9878031413939523</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9635563159555729</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9515100922955207</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>1.13671875</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.8281189772818505</v>
+      <c r="C17" t="n" s="545">
+        <v>0.872099758124661</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8701659560603241</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6240840805591206</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.5143775821727559</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.40234375</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4839779525739223</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>256.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9880618105660182</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9878031413939523</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9635563159555729</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9515100922955206</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.1640625</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.8672716544125414</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8682186586320271</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8701659560603241</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.6240840805591207</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.5143775821727559</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>1.89453125</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.463480063772248</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.6953125</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.0234375</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0078125</v>
-      </c>
-      <c r="E23" t="n" s="571">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.44140625</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.1484375</v>
+      </c>
+      <c r="D23" t="n" s="571">
         <v>0.078125</v>
       </c>
-      <c r="F23" t="n" s="572">
-        <v>0.11328125</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.08203125</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="E23" t="n" s="572">
+        <v>0.23046875</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.1015625</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.6953125</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.015625</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.01171875</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.09375</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.07421875</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.109375</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.2578125</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.19921875</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.0859375</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.3046875</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.15234375</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6792820149782035</v>
+        <v>0.8909712435155477</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6793254050086395</v>
+        <v>0.8912126976862933</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.514377582172756</v>
+        <v>0.8037724600801246</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.5143775821727559</v>
+        <v>0.8037724600801248</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>2.1184260169625904</v>
+        <v>8.192249267440504</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.040084475710586376</v>
+        <v>0.013609807038154412</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.6484375</v>
+        <v>1.97265625</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.282398755702551</v>
+        <v>1.2379752503940598</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.5143775821727559</v>
+        <v>0.8037724600801248</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.5143775821727559</v>
+        <v>0.8037724600801248</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.5143775821727559</v>
+        <v>0.8037724600801248</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.26458429704189024</v>
+        <v>0.6460501675832555</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.5143775821727559</v>
+        <v>0.8037724600801248</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.5143775821727559</v>
+        <v>0.8037724600801248</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.5143775821727559</v>
+        <v>0.8037724600801248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.26458429704189024</v>
+        <v>0.6460501675832555</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.5143775821727559</v>
+        <v>0.8037724600801248</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.26458429704189024</v>
+        <v>0.6460501675832555</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.5143775821727559</v>
+        <v>0.8037724600801248</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>256.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.872099758124661</v>
+        <v>0.9512792270352027</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8701659560603241</v>
+        <v>0.9496769082377766</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6240840805591206</v>
+        <v>0.8514172383923703</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.5143775821727559</v>
+        <v>0.8037724600801249</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.40234375</v>
+        <v>2.01171875</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4839779525739223</v>
+        <v>1.323934782692686</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>256.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8682186586320271</v>
+        <v>0.9480493452135264</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8701659560603241</v>
+        <v>0.9496769082377766</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.6240840805591207</v>
+        <v>0.8514172383923704</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.5143775821727559</v>
+        <v>0.8037724600801247</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>1.89453125</v>
+        <v>1.93359375</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.463480063772248</v>
+        <v>1.283180933782734</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.44140625</v>
+        <v>0.20703125</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.1484375</v>
+        <v>0.1015625</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.078125</v>
+        <v>0.30859375</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.23046875</v>
+        <v>0.23828125</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.1015625</v>
+        <v>0.14453125</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.2578125</v>
+        <v>0.21875</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.19921875</v>
+        <v>0.07421875</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.0859375</v>
+        <v>0.38671875</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.3046875</v>
+        <v>0.1953125</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.15234375</v>
+        <v>0.125</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,28 +7521,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8084064446753858</v>
+        <v>0.7901737838791973</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8164371607262444</v>
+        <v>0.8200442974433945</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9048801777552872</v>
+        <v>0.9085334607630694</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3078495400160508</v>
+        <v>0.31304164119955136</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.447725715925837</v>
+        <v>4.556923097146349</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.01828311593574431</v>
+        <v>0.018393104729155875</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.38515625</v>
+        <v>1.8078125</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8731363205787086</v>
+        <v>0.7831168870759521</v>
       </c>
       <c r="I6" t="n" s="727">
         <v>0.24214686003632305</v>
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7885140992204487</v>
+        <v>0.7760230961630569</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.792159438936088</v>
+        <v>0.795632901985373</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.881643330020691</v>
+        <v>0.8869869669959028</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2974995882427838</v>
+        <v>0.30195521455441465</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.8113803912052298</v>
+        <v>3.893155550549667</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.02015967082478248</v>
+        <v>0.020261140386733337</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.0385789160555775</v>
+        <v>0.04332388511555885</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.23452853031484222</v>
+        <v>0.24623877278615425</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7922271760181538</v>
+        <v>0.7459866044192058</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7975459556564469</v>
+        <v>0.7895428950464043</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8833946070984309</v>
+        <v>0.8836862937354928</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3044495744644438</v>
+        <v>0.294204118569654</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.939392558160292</v>
+        <v>3.7515620830215877</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.019771570295946228</v>
+        <v>0.022615717266282958</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.036951373670601986</v>
+        <v>0.04411634126083409</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.24903061258913942</v>
+        <v>0.24065415119082856</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7904626047438843</v>
+        <v>0.7547707935590036</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7961822717350819</v>
+        <v>0.7934132826580929</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8811609187200978</v>
+        <v>0.8860399694947579</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.3026685467722192</v>
+        <v>0.299097204879887</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.906344548695099</v>
+        <v>3.8405822642748615</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.01998039249069015</v>
+        <v>0.021651089225228293</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03656750443894401</v>
+        <v>0.04336630044666157</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.24623877278615425</v>
+        <v>0.2427721327085527</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7926691200856565</v>
+        <v>0.7944849264562638</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7982005451377008</v>
+        <v>0.8160661842981903</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8810563214177338</v>
+        <v>0.9057611397593698</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.30530977533072684</v>
+        <v>0.33019458490013487</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.955414773951517</v>
+        <v>4.436738188594875</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.019662816850810994</v>
+        <v>0.018857159356113352</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.035715307111674345</v>
+        <v>0.05575229411209312</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.24903061258913942</v>
+        <v>0.25068638461581805</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7887533992784321</v>
+        <v>0.7740098754824167</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7975488918834748</v>
+        <v>0.8014740070955039</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8795748138592547</v>
+        <v>0.8922054174484528</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.30445342530329084</v>
+        <v>0.3096636841680664</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.9394641960884087</v>
+        <v>4.037123780970408</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.020198648276552256</v>
+        <v>0.019458102318001765</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.03933572452418487</v>
+        <v>0.059076350865101865</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.22572340225283333</v>
+        <v>0.24065415119082856</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7912124405605228</v>
+        <v>0.7814439594150586</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8007075491766147</v>
+        <v>0.8067916428362945</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8816439093966912</v>
+        <v>0.8958642546877922</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.30863636631981467</v>
+        <v>0.3169274253304855</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.017751529816895</v>
+        <v>4.175759551398177</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.020027268626700772</v>
+        <v>0.018747561044063648</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.03863808293659352</v>
+        <v>0.0575340468945424</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.23452853031484222</v>
+        <v>0.25068638461581805</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7826662870308727</v>
+        <v>0.7770789182176264</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7984831496534874</v>
+        <v>0.8157023923767872</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8614835851553904</v>
+        <v>0.9087283703408705</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.30568221395239853</v>
+        <v>0.3296591908053483</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.9623641808636774</v>
+        <v>4.426006408311336</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.020945624449480275</v>
+        <v>0.019441553910142916</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03428959722248427</v>
+        <v>0.06365043938998681</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.24493869983930822</v>
+        <v>0.2427721327085527</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7900227655648266</v>
+        <v>0.7791921660740533</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8030855327973372</v>
+        <v>0.8146555288876762</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8644896722571088</v>
+        <v>0.9084374212871906</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.3118396401130641</v>
+        <v>0.32812552047722243</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.078347031611485</v>
+        <v>4.395359214108811</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.020198541202491368</v>
+        <v>0.019005600925956743</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03324893732627418</v>
+        <v>0.06460824059462585</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.24903061258913942</v>
+        <v>0.2442648415540472</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7997247552352802</v>
+        <v>0.7624004906062514</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8098350682845309</v>
+        <v>0.8006699347755695</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9050377501648145</v>
+        <v>0.8834260713322688</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3211949469903468</v>
+        <v>0.30858607504577173</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.25859311166915</v>
+        <v>4.01680465951825</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.019340706254758474</v>
+        <v>0.020521042354311816</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.0433836685346758</v>
+        <v>0.061647527784308695</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.2434459909938137</v>
+        <v>0.20722267249719056</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7982510457372874</v>
+        <v>0.7643219308281506</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8066719962046192</v>
+        <v>0.8032061600265967</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9027568502738407</v>
+        <v>0.8852883702357693</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3167613226714192</v>
+        <v>0.3120033932645288</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.172556382770103</v>
+        <v>4.08145986751999</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.01934116163808653</v>
+        <v>0.020444981404725546</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.044327429998064764</v>
+        <v>0.06119964301297661</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.24065415119082856</v>
+        <v>0.2185514457643709</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>256.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6261926121513348</v>
+        <v>0.7089519913453664</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6747340863136443</v>
+        <v>0.6824459748958348</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6476101303130308</v>
+        <v>0.7016547071453663</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5384124192003822</v>
+        <v>0.6777484558345154</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.38671875</v>
+        <v>0.3046875</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.1179723307635754</v>
+        <v>0.4611765643757408</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>256.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.5904911407037949</v>
+        <v>0.7687011837904836</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6339886876206846</v>
+        <v>0.7276090199854625</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6046340328882128</v>
+        <v>0.7515517974760877</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.4819458025743417</v>
+        <v>0.6417773034275586</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.88671875</v>
+        <v>1.13671875</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2798818017577203</v>
+        <v>1.8281189772818505</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>256.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.605267130712843</v>
+        <v>0.7379548118588534</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.644430245501293</v>
+        <v>0.6990986418284931</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6203919992768172</v>
+        <v>0.7210336580310934</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5099560334470372</v>
+        <v>0.5949389916539626</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.3203125</v>
+        <v>1.1640625</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.1643973026554864</v>
+        <v>1.8672716544125414</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>256.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.5938731164822441</v>
+        <v>0.38166419605813945</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6289456233418668</v>
+        <v>0.5179046043936558</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6049505925843949</v>
+        <v>0.4575480460502209</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.4745807837820104</v>
+        <v>0.35917104153380053</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.71484375</v>
+        <v>0.95703125</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.397734292331981</v>
+        <v>0.20318390925561047</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>256.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6213053997907961</v>
+        <v>0.5600211977060152</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6339661114659818</v>
+        <v>0.6375312994205413</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.608931067396273</v>
+        <v>0.6071480085791803</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5141210417799392</v>
+        <v>0.44981856640778806</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.01171875</v>
+        <v>3.38671875</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.323934782692686</v>
+        <v>1.1179723307635754</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>256.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5993969152812124</v>
+        <v>0.5149996169240629</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6094429550176677</v>
+        <v>0.5952079079565855</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5816978643297831</v>
+        <v>0.5579039012137633</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.492061608794714</v>
+        <v>0.37946159638078814</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.93359375</v>
+        <v>3.88671875</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.283180933782734</v>
+        <v>1.2798818017577203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>256.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6987675435406281</v>
+        <v>0.575331595663465</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.6267621427356211</v>
+        <v>0.5210241668001993</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.6438374881782452</v>
+        <v>0.4333154594172572</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.564640319411508</v>
+        <v>0.42664019993480196</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>1.13671875</v>
+        <v>1.40234375</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.8281189772818505</v>
+        <v>1.4839779525739223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>256.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6648828395682861</v>
+        <v>0.5588068120545941</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.590663253351226</v>
+        <v>0.5299603510918084</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.605335206266793</v>
+        <v>0.44309898413275933</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.5169006757900726</v>
+        <v>0.4092150497145559</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>1.1640625</v>
+        <v>1.89453125</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.8672716544125414</v>
+        <v>1.463480063772248</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>256.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5488041142746032</v>
+        <v>0.6538870804181406</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.535816280069195</v>
+        <v>0.6438101675283381</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.44586249706058306</v>
+        <v>0.61907625580292</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.41277950302278976</v>
+        <v>0.5395339523022465</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.40234375</v>
+        <v>2.01171875</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4839779525739223</v>
+        <v>1.323934782692686</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>256.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5573203875623841</v>
+        <v>0.6397513666161673</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5618091072156002</v>
+        <v>0.6238985966869022</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4779670565031583</v>
+        <v>0.5968225266830457</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.42488661537628303</v>
+        <v>0.5264401378511284</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>1.89453125</v>
+        <v>1.93359375</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.463480063772248</v>
+        <v>1.283180933782734</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.04296875</v>
+        <v>0.6953125</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.05078125</v>
+        <v>0.3046875</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.01171875</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.34765625</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.46484375</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.08203125</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.04296875</v>
+        <v>0.6953125</v>
       </c>
       <c r="C40" t="n" s="798">
+        <v>0.0234375</v>
+      </c>
+      <c r="D40" t="n" s="799">
         <v>0.0078125</v>
       </c>
-      <c r="D40" t="n" s="799">
-        <v>0.05078125</v>
-      </c>
       <c r="E40" t="n" s="800">
-        <v>0.25</v>
+        <v>0.078125</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.21484375</v>
+        <v>0.11328125</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.43359375</v>
+        <v>0.08203125</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.04296875</v>
+        <v>0.6953125</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.0625</v>
+        <v>0.015625</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.03515625</v>
+        <v>0.01171875</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3359375</v>
+        <v>0.09375</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.4375</v>
+        <v>0.07421875</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.0859375</v>
+        <v>0.109375</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
         <v>0.04296875</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.0234375</v>
+        <v>0.95703125</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.0859375</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.328125</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.0625</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.45703125</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.20703125</v>
+        <v>0.04296875</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.1015625</v>
+        <v>0.05078125</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.30859375</v>
+        <v>0.01171875</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.23828125</v>
+        <v>0.34765625</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.14453125</v>
+        <v>0.46484375</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.08203125</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.21875</v>
+        <v>0.04296875</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.07421875</v>
+        <v>0.0078125</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.38671875</v>
+        <v>0.05078125</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.1953125</v>
+        <v>0.25</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.125</v>
+        <v>0.21484375</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.43359375</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.6953125</v>
+        <v>0.44140625</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.0234375</v>
+        <v>0.1484375</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.0078125</v>
+        <v>0.078125</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.078125</v>
+        <v>0.23046875</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.11328125</v>
+        <v>0.1015625</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.08203125</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.6953125</v>
+        <v>0.2578125</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.015625</v>
+        <v>0.19921875</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.01171875</v>
+        <v>0.0859375</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.09375</v>
+        <v>0.3046875</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.07421875</v>
+        <v>0.15234375</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.109375</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.44140625</v>
+        <v>0.20703125</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.1484375</v>
+        <v>0.1015625</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.078125</v>
+        <v>0.30859375</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.23046875</v>
+        <v>0.23828125</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.1015625</v>
+        <v>0.14453125</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.2578125</v>
+        <v>0.21875</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.19921875</v>
+        <v>0.07421875</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.0859375</v>
+        <v>0.38671875</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.3046875</v>
+        <v>0.1953125</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.15234375</v>
+        <v>0.125</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
